--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prusl\OneDrive\Pulpit\Moj folder\Notatki\kody\Inflation csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prusl\OneDrive\Pulpit\Moj folder\Notatki\kody\Inflation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D65F93A-9076-4327-B43C-7C69936805EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFE179F-E5FD-42DC-AB7B-B9B17902B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -129,9 +129,6 @@
     <t>:</t>
   </si>
   <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>2019-03</t>
   </si>
   <si>
@@ -274,6 +271,9 @@
   </si>
   <si>
     <t>2023-02</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -281,8 +281,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -374,16 +374,16 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,7 +672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14427822-FB65-430C-8AAB-B74545C39BDA}">
   <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -681,151 +681,151 @@
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AV1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.25">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prusl\OneDrive\Pulpit\Moj folder\Notatki\kody\Inflation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA303F-C905-45F1-94DA-23B20D31C245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Arkusz1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -169,6 +163,12 @@
     <t>2023-02</t>
   </si>
   <si>
+    <t>European Union</t>
+  </si>
+  <si>
+    <t>Euro area</t>
+  </si>
+  <si>
     <t>Belgium</t>
   </si>
   <si>
@@ -263,18 +263,12 @@
   </si>
   <si>
     <t>:</t>
-  </si>
-  <si>
-    <t>Euro area</t>
-  </si>
-  <si>
-    <t>European Union</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -289,20 +283,20 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -316,17 +310,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4669AF"/>
+        <fgColor rgb="FF4669af"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFdce6f1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F6F6"/>
+        <fgColor rgb="FFf6f6f6"/>
       </patternFill>
     </fill>
   </fills>
@@ -340,16 +334,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB0B0B0"/>
+        <color rgb="FFb0b0b0"/>
       </left>
       <right style="thin">
-        <color rgb="FFB0B0B0"/>
+        <color rgb="FFb0b0b0"/>
       </right>
       <top style="thin">
-        <color rgb="FFB0B0B0"/>
+        <color rgb="FFb0b0b0"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB0B0B0"/>
+        <color rgb="FFb0b0b0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -362,16 +356,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,52 +374,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,10 +427,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -477,71 +468,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,7 +560,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -592,11 +583,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -605,13 +596,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -621,7 +612,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -630,7 +621,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -639,7 +630,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -647,10 +638,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -715,29 +706,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="49" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,9 +916,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5">
         <v>1.6</v>
@@ -912,7 +942,7 @@
         <v>1.2</v>
       </c>
       <c r="I2" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="5">
         <v>1.3</v>
@@ -969,10 +999,10 @@
         <v>2</v>
       </c>
       <c r="AB2" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC2" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD2" s="5">
         <v>2.5</v>
@@ -984,7 +1014,7 @@
         <v>3.6</v>
       </c>
       <c r="AG2" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AH2" s="5">
         <v>5.2</v>
@@ -1005,13 +1035,13 @@
         <v>8.1</v>
       </c>
       <c r="AN2" s="5">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AO2" s="5">
         <v>9.6</v>
       </c>
       <c r="AP2" s="5">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AQ2" s="5">
         <v>10.1</v>
@@ -1035,9 +1065,9 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B3" s="7">
         <v>1.4</v>
@@ -1124,7 +1154,7 @@
         <v>1.9</v>
       </c>
       <c r="AD3" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AE3" s="8">
         <v>3</v>
@@ -1133,16 +1163,16 @@
         <v>3.4</v>
       </c>
       <c r="AG3" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AH3" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AI3" s="8">
         <v>5</v>
       </c>
       <c r="AJ3" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AK3" s="7">
         <v>5.9</v>
@@ -1175,7 +1205,7 @@
         <v>10.1</v>
       </c>
       <c r="AU3" s="7">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="AV3" s="7">
         <v>8.6</v>
@@ -1184,12 +1214,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
@@ -1297,10 +1327,10 @@
         <v>9.5</v>
       </c>
       <c r="AL4" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AM4" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AN4" s="5">
         <v>9.9</v>
@@ -1324,7 +1354,7 @@
         <v>10.5</v>
       </c>
       <c r="AU4" s="5">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AV4" s="5">
         <v>7.4</v>
@@ -1333,9 +1363,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7">
         <v>2.8</v>
@@ -1347,7 +1377,7 @@
         <v>2.9</v>
       </c>
       <c r="E5" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F5" s="7">
         <v>2.6</v>
@@ -1362,7 +1392,7 @@
         <v>1.6</v>
       </c>
       <c r="J5" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K5" s="7">
         <v>3.1</v>
@@ -1416,13 +1446,13 @@
         <v>2</v>
       </c>
       <c r="AB5" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="7">
         <v>2.4</v>
       </c>
       <c r="AD5" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="7">
         <v>2.5</v>
@@ -1482,9 +1512,9 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
         <v>2.6</v>
@@ -1553,13 +1583,13 @@
         <v>2.4</v>
       </c>
       <c r="X6" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Y6" s="5">
         <v>2.1</v>
       </c>
       <c r="Z6" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AA6" s="5">
         <v>3.1</v>
@@ -1589,7 +1619,7 @@
         <v>5.4</v>
       </c>
       <c r="AJ6" s="5">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AK6" s="6">
         <v>10</v>
@@ -1604,13 +1634,13 @@
         <v>15.2</v>
       </c>
       <c r="AO6" s="5">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="AP6" s="5">
         <v>17.3</v>
       </c>
       <c r="AQ6" s="5">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="AR6" s="5">
         <v>17.8</v>
@@ -1625,15 +1655,15 @@
         <v>16.8</v>
       </c>
       <c r="AV6" s="5">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="AW6" s="5">
-        <v>18.399999999999999</v>
+        <v>18.4</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" s="7">
         <v>1.2</v>
@@ -1738,7 +1768,7 @@
         <v>3.4</v>
       </c>
       <c r="AJ7" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AK7" s="7">
         <v>5.3</v>
@@ -1750,7 +1780,7 @@
         <v>7.4</v>
       </c>
       <c r="AN7" s="7">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AO7" s="7">
         <v>9.1</v>
@@ -1768,7 +1798,7 @@
         <v>11.4</v>
       </c>
       <c r="AT7" s="7">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
       <c r="AU7" s="7">
         <v>9.6</v>
@@ -1777,12 +1807,12 @@
         <v>8.4</v>
       </c>
       <c r="AW7" s="7">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" s="5">
         <v>1.4</v>
@@ -1797,7 +1827,7 @@
         <v>1.5</v>
       </c>
       <c r="F8" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1875,10 +1905,10 @@
         <v>3.4</v>
       </c>
       <c r="AF8" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AG8" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AH8" s="6">
         <v>6</v>
@@ -1887,7 +1917,7 @@
         <v>5.7</v>
       </c>
       <c r="AJ8" s="5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AK8" s="5">
         <v>5.5</v>
@@ -1899,16 +1929,16 @@
         <v>7.8</v>
       </c>
       <c r="AN8" s="5">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="AO8" s="5">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AP8" s="5">
         <v>8.5</v>
       </c>
       <c r="AQ8" s="5">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AR8" s="5">
         <v>10.9</v>
@@ -1923,18 +1953,18 @@
         <v>9.6</v>
       </c>
       <c r="AV8" s="5">
-        <v>9.1999999999999993</v>
+        <v>9.2</v>
       </c>
       <c r="AW8" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="C9" s="7">
         <v>3.2</v>
@@ -1952,7 +1982,7 @@
         <v>2.1</v>
       </c>
       <c r="H9" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I9" s="7">
         <v>1.4</v>
@@ -2018,7 +2048,7 @@
         <v>3.7</v>
       </c>
       <c r="AD9" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AE9" s="8">
         <v>5</v>
@@ -2045,10 +2075,10 @@
         <v>14.8</v>
       </c>
       <c r="AM9" s="7">
-        <v>19.100000000000001</v>
+        <v>19.1</v>
       </c>
       <c r="AN9" s="7">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="AO9" s="8">
         <v>22</v>
@@ -2072,18 +2102,18 @@
         <v>17.5</v>
       </c>
       <c r="AV9" s="7">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AW9" s="7">
         <v>17.8</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C10" s="5">
         <v>1.7</v>
@@ -2092,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F10" s="5">
         <v>0.5</v>
@@ -2110,10 +2140,10 @@
         <v>0.8</v>
       </c>
       <c r="K10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M10" s="5">
         <v>0.9</v>
@@ -2134,7 +2164,7 @@
         <v>-0.6</v>
       </c>
       <c r="S10" s="5">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="T10" s="5">
         <v>-1.2</v>
@@ -2158,7 +2188,7 @@
         <v>0.1</v>
       </c>
       <c r="AA10" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AB10" s="5">
         <v>1.9</v>
@@ -2167,7 +2197,7 @@
         <v>1.6</v>
       </c>
       <c r="AD10" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AE10" s="6">
         <v>3</v>
@@ -2176,7 +2206,7 @@
         <v>3.8</v>
       </c>
       <c r="AG10" s="5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AH10" s="5">
         <v>5.4</v>
@@ -2197,7 +2227,7 @@
         <v>7.3</v>
       </c>
       <c r="AN10" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="AO10" s="5">
         <v>9.6</v>
@@ -2218,7 +2248,7 @@
         <v>9</v>
       </c>
       <c r="AU10" s="5">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AV10" s="5">
         <v>7.5</v>
@@ -2227,15 +2257,15 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D11" s="7">
         <v>0.6</v>
@@ -2259,10 +2289,10 @@
         <v>0.5</v>
       </c>
       <c r="K11" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L11" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M11" s="7">
         <v>0.4</v>
@@ -2283,10 +2313,10 @@
         <v>-2.1</v>
       </c>
       <c r="S11" s="7">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="T11" s="7">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="U11" s="8">
         <v>-2</v>
@@ -2307,7 +2337,7 @@
         <v>-2</v>
       </c>
       <c r="AA11" s="7">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="AB11" s="7">
         <v>-1.2</v>
@@ -2331,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="AI11" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AJ11" s="7">
         <v>5.5</v>
@@ -2364,7 +2394,7 @@
         <v>9.5</v>
       </c>
       <c r="AT11" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AU11" s="7">
         <v>7.6</v>
@@ -2376,9 +2406,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5">
         <v>1.3</v>
@@ -2411,7 +2441,7 @@
         <v>0.8</v>
       </c>
       <c r="L12" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="M12" s="5">
         <v>0.9</v>
@@ -2489,10 +2519,10 @@
         <v>7.6</v>
       </c>
       <c r="AL12" s="5">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AM12" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="AN12" s="5">
         <v>8.5</v>
@@ -2525,9 +2555,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="7">
         <v>1.3</v>
@@ -2536,7 +2566,7 @@
         <v>1.5</v>
       </c>
       <c r="D13" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="E13" s="7">
         <v>1.4</v>
@@ -2548,7 +2578,7 @@
         <v>1.3</v>
       </c>
       <c r="H13" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I13" s="7">
         <v>0.9</v>
@@ -2638,7 +2668,7 @@
         <v>4.2</v>
       </c>
       <c r="AL13" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AM13" s="7">
         <v>5.4</v>
@@ -2674,12 +2704,12 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C14" s="5">
         <v>0.8</v>
@@ -2760,7 +2790,7 @@
         <v>2.4</v>
       </c>
       <c r="AC14" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD14" s="5">
         <v>2.7</v>
@@ -2823,15 +2853,15 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C15" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D15" s="7">
         <v>0.9</v>
@@ -2930,7 +2960,7 @@
         <v>4.2</v>
       </c>
       <c r="AJ15" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AK15" s="7">
         <v>6.2</v>
@@ -2969,15 +2999,15 @@
         <v>10.7</v>
       </c>
       <c r="AW15" s="7">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C16" s="5">
         <v>1.2</v>
@@ -3022,7 +3052,7 @@
         <v>-1.4</v>
       </c>
       <c r="Q16" s="5">
-        <v>-2.2000000000000002</v>
+        <v>-2.2</v>
       </c>
       <c r="R16" s="6">
         <v>-2</v>
@@ -3037,7 +3067,7 @@
         <v>-1.4</v>
       </c>
       <c r="V16" s="5">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="W16" s="5">
         <v>-0.8</v>
@@ -3058,7 +3088,7 @@
         <v>1.5</v>
       </c>
       <c r="AC16" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AD16" s="5">
         <v>2.7</v>
@@ -3070,7 +3100,7 @@
         <v>3.6</v>
       </c>
       <c r="AG16" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AH16" s="5">
         <v>4.7</v>
@@ -3091,7 +3121,7 @@
         <v>8.6</v>
       </c>
       <c r="AN16" s="5">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AO16" s="6">
         <v>9</v>
@@ -3121,9 +3151,9 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7">
         <v>2.7</v>
@@ -3144,10 +3174,10 @@
         <v>3.1</v>
       </c>
       <c r="H17" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I17" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="J17" s="8">
         <v>2</v>
@@ -3156,10 +3186,10 @@
         <v>2.1</v>
       </c>
       <c r="L17" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M17" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="N17" s="7">
         <v>1.4</v>
@@ -3171,7 +3201,7 @@
         <v>-0.9</v>
       </c>
       <c r="Q17" s="7">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="R17" s="7">
         <v>0.1</v>
@@ -3231,7 +3261,7 @@
         <v>7.5</v>
       </c>
       <c r="AK17" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AL17" s="7">
         <v>11.5</v>
@@ -3267,12 +3297,12 @@
         <v>21.4</v>
       </c>
       <c r="AW17" s="7">
-        <v>20.100000000000001</v>
+        <v>20.1</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B18" s="5">
         <v>2.6</v>
@@ -3368,10 +3398,10 @@
         <v>6.4</v>
       </c>
       <c r="AG18" s="5">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="AH18" s="5">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AI18" s="5">
         <v>10.7</v>
@@ -3386,7 +3416,7 @@
         <v>15.6</v>
       </c>
       <c r="AM18" s="5">
-        <v>16.600000000000001</v>
+        <v>16.6</v>
       </c>
       <c r="AN18" s="5">
         <v>18.5</v>
@@ -3419,18 +3449,18 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" s="7">
         <v>2.4</v>
       </c>
       <c r="C19" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D19" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E19" s="7">
         <v>1.5</v>
@@ -3442,7 +3472,7 @@
         <v>1.4</v>
       </c>
       <c r="H19" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I19" s="7">
         <v>0.8</v>
@@ -3490,7 +3520,7 @@
         <v>-0.3</v>
       </c>
       <c r="X19" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y19" s="7">
         <v>-0.5</v>
@@ -3526,7 +3556,7 @@
         <v>5.4</v>
       </c>
       <c r="AJ19" s="7">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AK19" s="7">
         <v>7.8</v>
@@ -3544,16 +3574,16 @@
         <v>10.3</v>
       </c>
       <c r="AP19" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AQ19" s="7">
         <v>8.6</v>
       </c>
       <c r="AR19" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AS19" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AT19" s="7">
         <v>7.3</v>
@@ -3568,9 +3598,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="5">
         <v>3.8</v>
@@ -3600,13 +3630,13 @@
         <v>3.4</v>
       </c>
       <c r="K20" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="L20" s="5">
         <v>4.7</v>
       </c>
       <c r="M20" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="N20" s="5">
         <v>3.9</v>
@@ -3615,7 +3645,7 @@
         <v>2.5</v>
       </c>
       <c r="P20" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="Q20" s="5">
         <v>2.9</v>
@@ -3660,7 +3690,7 @@
         <v>4.7</v>
       </c>
       <c r="AE20" s="5">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AF20" s="5">
         <v>5.5</v>
@@ -3696,7 +3726,7 @@
         <v>14.7</v>
       </c>
       <c r="AQ20" s="5">
-        <v>18.600000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="AR20" s="5">
         <v>20.7</v>
@@ -3717,9 +3747,9 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7">
         <v>1.3</v>
@@ -3755,13 +3785,13 @@
         <v>1.4</v>
       </c>
       <c r="M21" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="N21" s="7">
         <v>1.2</v>
       </c>
       <c r="O21" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="P21" s="7">
         <v>0.9</v>
@@ -3824,7 +3854,7 @@
         <v>2.6</v>
       </c>
       <c r="AJ21" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AK21" s="7">
         <v>4.2</v>
@@ -3866,9 +3896,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="5">
         <v>2.9</v>
@@ -3877,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="E22" s="5">
         <v>2.7</v>
@@ -3907,13 +3937,13 @@
         <v>1.3</v>
       </c>
       <c r="N22" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="O22" s="6">
         <v>1</v>
       </c>
       <c r="P22" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q22" s="5">
         <v>1.7</v>
@@ -3985,7 +4015,7 @@
         <v>11.2</v>
       </c>
       <c r="AN22" s="5">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AO22" s="5">
         <v>9.9</v>
@@ -3997,7 +4027,7 @@
         <v>13.7</v>
       </c>
       <c r="AR22" s="5">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="AS22" s="5">
         <v>16.8</v>
@@ -4015,9 +4045,9 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B23" s="7">
         <v>1.7</v>
@@ -4050,10 +4080,10 @@
         <v>1.8</v>
       </c>
       <c r="L23" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="M23" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="N23" s="7">
         <v>1.6</v>
@@ -4065,7 +4095,7 @@
         <v>0.6</v>
       </c>
       <c r="Q23" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R23" s="7">
         <v>1.8</v>
@@ -4077,16 +4107,16 @@
         <v>1.2</v>
       </c>
       <c r="U23" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="V23" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W23" s="8">
         <v>1</v>
       </c>
       <c r="X23" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y23" s="7">
         <v>1.4</v>
@@ -4116,7 +4146,7 @@
         <v>3.8</v>
       </c>
       <c r="AH23" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AI23" s="7">
         <v>3.8</v>
@@ -4137,13 +4167,13 @@
         <v>7.7</v>
       </c>
       <c r="AO23" s="7">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="AP23" s="7">
         <v>9.4</v>
       </c>
       <c r="AQ23" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AR23" s="8">
         <v>11</v>
@@ -4164,9 +4194,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5">
         <v>1.7</v>
@@ -4175,10 +4205,10 @@
         <v>2.1</v>
       </c>
       <c r="D24" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="E24" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F24" s="5">
         <v>2.5</v>
@@ -4190,7 +4220,7 @@
         <v>2.4</v>
       </c>
       <c r="I24" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="J24" s="5">
         <v>2.4</v>
@@ -4202,7 +4232,7 @@
         <v>3.8</v>
       </c>
       <c r="M24" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="N24" s="5">
         <v>3.9</v>
@@ -4241,16 +4271,16 @@
         <v>3.6</v>
       </c>
       <c r="Z24" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AA24" s="5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AB24" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="AC24" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AD24" s="5">
         <v>4.7</v>
@@ -4271,13 +4301,13 @@
         <v>8</v>
       </c>
       <c r="AJ24" s="5">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="AK24" s="5">
         <v>8.1</v>
       </c>
       <c r="AL24" s="5">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AM24" s="5">
         <v>11.4</v>
@@ -4298,10 +4328,10 @@
         <v>15.7</v>
       </c>
       <c r="AS24" s="5">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="AT24" s="5">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="AU24" s="5">
         <v>15.3</v>
@@ -4313,9 +4343,9 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B25" s="7">
         <v>0.8</v>
@@ -4402,7 +4432,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD25" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AE25" s="7">
         <v>1.3</v>
@@ -4423,7 +4453,7 @@
         <v>3.4</v>
       </c>
       <c r="AK25" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AL25" s="7">
         <v>5.5</v>
@@ -4441,19 +4471,19 @@
         <v>9.4</v>
       </c>
       <c r="AQ25" s="7">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="AR25" s="7">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AS25" s="7">
         <v>10.6</v>
       </c>
       <c r="AT25" s="7">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="AU25" s="7">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AV25" s="7">
         <v>8.6</v>
@@ -4462,27 +4492,27 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5">
         <v>4.2</v>
       </c>
       <c r="C26" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="D26" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E26" s="5">
         <v>3.9</v>
       </c>
       <c r="F26" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G26" s="5">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="H26" s="5">
         <v>3.5</v>
@@ -4506,13 +4536,13 @@
         <v>2.7</v>
       </c>
       <c r="O26" s="5">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="P26" s="5">
         <v>1.8</v>
       </c>
       <c r="Q26" s="5">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="R26" s="5">
         <v>2.5</v>
@@ -4611,9 +4641,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="7">
         <v>1.6</v>
@@ -4646,7 +4676,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="M27" s="8">
         <v>2</v>
@@ -4676,7 +4706,7 @@
         <v>-0.5</v>
       </c>
       <c r="V27" s="7">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="W27" s="7">
         <v>-1.2</v>
@@ -4685,16 +4715,16 @@
         <v>-0.9</v>
       </c>
       <c r="Y27" s="7">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="Z27" s="7">
         <v>0.1</v>
       </c>
       <c r="AA27" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB27" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AC27" s="7">
         <v>1.7</v>
@@ -4712,10 +4742,10 @@
         <v>3.5</v>
       </c>
       <c r="AH27" s="7">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="AI27" s="7">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AJ27" s="8">
         <v>6</v>
@@ -4730,7 +4760,7 @@
         <v>7.4</v>
       </c>
       <c r="AN27" s="7">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="AO27" s="7">
         <v>10.8</v>
@@ -4760,9 +4790,9 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="5">
         <v>2.7</v>
@@ -4858,19 +4888,19 @@
         <v>4</v>
       </c>
       <c r="AG28" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AH28" s="5">
         <v>4.8</v>
       </c>
       <c r="AI28" s="5">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="AJ28" s="5">
         <v>7.7</v>
       </c>
       <c r="AK28" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="AL28" s="5">
         <v>9.6</v>
@@ -4909,12 +4939,12 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="C29" s="7">
         <v>1.5</v>
@@ -4923,7 +4953,7 @@
         <v>1.3</v>
       </c>
       <c r="E29" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
@@ -4941,13 +4971,13 @@
         <v>0.8</v>
       </c>
       <c r="K29" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="L29" s="7">
         <v>1.2</v>
       </c>
       <c r="M29" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="N29" s="7">
         <v>0.9</v>
@@ -4989,10 +5019,10 @@
         <v>1.4</v>
       </c>
       <c r="AA29" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AB29" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AC29" s="7">
         <v>1.9</v>
@@ -5016,10 +5046,10 @@
         <v>3.2</v>
       </c>
       <c r="AJ29" s="7">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="AK29" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AL29" s="7">
         <v>5.8</v>
@@ -5049,7 +5079,7 @@
         <v>9.1</v>
       </c>
       <c r="AU29" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
       <c r="AV29" s="7">
         <v>7.9</v>
@@ -5058,9 +5088,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" s="5">
         <v>1.8</v>
@@ -5168,7 +5198,7 @@
         <v>3.9</v>
       </c>
       <c r="AK30" s="5">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AL30" s="5">
         <v>6.3</v>
@@ -5183,7 +5213,7 @@
         <v>8.9</v>
       </c>
       <c r="AP30" s="5">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="AQ30" s="5">
         <v>9.5</v>
@@ -5192,7 +5222,7 @@
         <v>10.3</v>
       </c>
       <c r="AS30" s="5">
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="AT30" s="5">
         <v>10.1</v>
@@ -5204,12 +5234,12 @@
         <v>9.6</v>
       </c>
       <c r="AW30" s="5">
-        <v>9.6999999999999993</v>
+        <v>9.7</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B31" s="7">
         <v>1.4</v>
@@ -5221,7 +5251,7 @@
         <v>2.9</v>
       </c>
       <c r="E31" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F31" s="7">
         <v>1.7</v>
@@ -5236,7 +5266,7 @@
         <v>1.9</v>
       </c>
       <c r="J31" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="K31" s="7">
         <v>0.9</v>
@@ -5275,7 +5305,7 @@
         <v>2.6</v>
       </c>
       <c r="W31" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="X31" s="7">
         <v>3.5</v>
@@ -5317,7 +5347,7 @@
         <v>4.3</v>
       </c>
       <c r="AK31" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="AL31" s="8">
         <v>5</v>
@@ -5353,12 +5383,12 @@
         <v>8.1</v>
       </c>
       <c r="AW31" s="7">
-        <v>8.8000000000000007</v>
+        <v>8.8</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" s="5">
         <v>3.2</v>
@@ -5403,7 +5433,7 @@
         <v>0.6</v>
       </c>
       <c r="P32" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q32" s="5">
         <v>1.3</v>
@@ -5505,15 +5535,15 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="7">
         <v>0.7</v>
       </c>
       <c r="C33" s="7">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D33" s="7">
         <v>0.5</v>
@@ -5564,7 +5594,7 @@
         <v>-1.4</v>
       </c>
       <c r="T33" s="7">
-        <v>-1.1000000000000001</v>
+        <v>-1.1</v>
       </c>
       <c r="U33" s="7">
         <v>-0.9</v>
@@ -5618,10 +5648,10 @@
         <v>1.9</v>
       </c>
       <c r="AL33" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="AM33" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="AN33" s="7">
         <v>2.7</v>
@@ -5654,9 +5684,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="5">
         <v>1.9</v>
@@ -5722,85 +5752,85 @@
         <v>0.3</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AB34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AC34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AD34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AE34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AF34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AG34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AH34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AI34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AN34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AQ34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AR34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AS34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AT34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AU34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AV34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AW34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
